--- a/upload/files/陈燕账单.xlsx
+++ b/upload/files/陈燕账单.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hezhuopeng/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15840" windowHeight="11080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6705" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="支付宝" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">微信!$A$5:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="207">
   <si>
     <t>#账号：liushanshan3051@cvte.com[20888214285954280156]</t>
   </si>
@@ -658,20 +650,13 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>口腔</t>
-    <rPh sb="0" eb="1">
-      <t>kou q</t>
-    </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1148,16 +1133,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,7 +1275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1307,31 +1292,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1339,12 +1321,6 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1355,6 +1331,12 @@
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1669,13 +1651,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2114,8 +2096,8 @@
       <c r="N11" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>207</v>
+      <c r="O11" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2255,7 +2237,7 @@
       <c r="N14" t="s">
         <v>93</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2749,10 +2731,10 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
